--- a/7/2/1/Economía nacional 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/1/Economía nacional 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Serie</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3189,34 +3192,69 @@
         <v>83</v>
       </c>
       <c r="B74">
-        <v>50334</v>
+        <v>50544</v>
       </c>
       <c r="C74">
-        <v>-2649</v>
+        <v>-3004</v>
       </c>
       <c r="D74">
-        <v>5736</v>
+        <v>5754</v>
       </c>
       <c r="E74">
-        <v>-23</v>
+        <v>-11</v>
       </c>
       <c r="F74">
-        <v>53398</v>
+        <v>53283</v>
       </c>
       <c r="G74">
-        <v>41095</v>
+        <v>41167</v>
       </c>
       <c r="H74">
-        <v>12302</v>
+        <v>12116</v>
       </c>
       <c r="I74">
-        <v>13429</v>
+        <v>13449</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>-1127</v>
+        <v>-1332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75">
+        <v>51330</v>
+      </c>
+      <c r="C75">
+        <v>-3387</v>
+      </c>
+      <c r="D75">
+        <v>5963</v>
+      </c>
+      <c r="E75">
+        <v>35</v>
+      </c>
+      <c r="F75">
+        <v>53940</v>
+      </c>
+      <c r="G75">
+        <v>43315</v>
+      </c>
+      <c r="H75">
+        <v>10625</v>
+      </c>
+      <c r="I75">
+        <v>12521</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>-1895</v>
       </c>
     </row>
   </sheetData>
